--- a/Soporte Cytibus.xlsx
+++ b/Soporte Cytibus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="73">
   <si>
     <t>Numero economico</t>
   </si>
@@ -598,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -690,11 +690,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA50021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1023,13 +1049,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U346"/>
+  <dimension ref="A1:AE346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,11 +1077,19 @@
     <col min="19" max="19" width="7.5703125" style="1" customWidth="1"/>
     <col min="20" max="20" width="15.28515625" style="1" customWidth="1"/>
     <col min="21" max="21" width="42" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
+    <col min="22" max="22" width="20" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" style="1" customWidth="1"/>
+    <col min="24" max="26" width="11.42578125" style="1"/>
+    <col min="27" max="27" width="14.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12" style="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="42" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:21" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:31" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1080,10 +1114,10 @@
       <c r="H2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1108,15 +1142,43 @@
       <c r="R2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="30"/>
+      <c r="T2" s="31"/>
       <c r="U2" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="V2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>5300</v>
       </c>
@@ -1176,8 +1238,36 @@
         <v>43203</v>
       </c>
       <c r="U3" s="16"/>
+      <c r="V3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="13">
+        <v>43204</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="15">
+        <v>43203</v>
+      </c>
+      <c r="AE3" s="16"/>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>5301</v>
       </c>
@@ -1237,8 +1327,36 @@
         <v>43203</v>
       </c>
       <c r="U4" s="6"/>
+      <c r="V4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>43203</v>
+      </c>
+      <c r="AE4" s="6"/>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>5302</v>
       </c>
@@ -1298,8 +1416,36 @@
         <v>43204</v>
       </c>
       <c r="U5" s="6"/>
+      <c r="V5" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>43204</v>
+      </c>
+      <c r="AE5" s="6"/>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <f>A5+1</f>
         <v>5303</v>
@@ -1360,8 +1506,36 @@
         <v>43205</v>
       </c>
       <c r="U6" s="6"/>
+      <c r="V6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>43205</v>
+      </c>
+      <c r="AE6" s="6"/>
     </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A57" si="0">A6+1</f>
         <v>5304</v>
@@ -1422,8 +1596,36 @@
         <v>43206</v>
       </c>
       <c r="U7" s="6"/>
+      <c r="V7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>43206</v>
+      </c>
+      <c r="AE7" s="6"/>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="0"/>
         <v>5305</v>
@@ -1484,8 +1686,36 @@
         <v>43207</v>
       </c>
       <c r="U8" s="6"/>
+      <c r="V8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>43207</v>
+      </c>
+      <c r="AE8" s="6"/>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="0"/>
         <v>5306</v>
@@ -1546,8 +1776,36 @@
         <v>43208</v>
       </c>
       <c r="U9" s="6"/>
+      <c r="V9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>43208</v>
+      </c>
+      <c r="AE9" s="6"/>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="0"/>
         <v>5307</v>
@@ -1608,8 +1866,36 @@
         <v>43209</v>
       </c>
       <c r="U10" s="6"/>
+      <c r="V10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>43209</v>
+      </c>
+      <c r="AE10" s="6"/>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="0"/>
         <v>5308</v>
@@ -1674,8 +1960,38 @@
       <c r="U11" s="29" t="s">
         <v>71</v>
       </c>
+      <c r="V11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="W11" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X11" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y11" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z11" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA11" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB11" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC11" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD11" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE11" s="29" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="0"/>
         <v>5309</v>
@@ -1736,8 +2052,36 @@
         <v>43211</v>
       </c>
       <c r="U12" s="6"/>
+      <c r="V12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>43211</v>
+      </c>
+      <c r="AE12" s="6"/>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" si="0"/>
         <v>5310</v>
@@ -1798,8 +2142,36 @@
         <v>43212</v>
       </c>
       <c r="U13" s="6"/>
+      <c r="V13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="W13" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>43212</v>
+      </c>
+      <c r="AE13" s="6"/>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="0"/>
         <v>5311</v>
@@ -1860,8 +2232,36 @@
         <v>43213</v>
       </c>
       <c r="U14" s="6"/>
+      <c r="V14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="W14" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>43213</v>
+      </c>
+      <c r="AE14" s="6"/>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="0"/>
         <v>5312</v>
@@ -1922,8 +2322,36 @@
         <v>43214</v>
       </c>
       <c r="U15" s="6"/>
+      <c r="V15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>43214</v>
+      </c>
+      <c r="AE15" s="6"/>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <f t="shared" si="0"/>
         <v>5313</v>
@@ -1984,8 +2412,36 @@
         <v>43215</v>
       </c>
       <c r="U16" s="6"/>
+      <c r="V16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>43215</v>
+      </c>
+      <c r="AE16" s="6"/>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <f t="shared" si="0"/>
         <v>5314</v>
@@ -2046,8 +2502,36 @@
         <v>43216</v>
       </c>
       <c r="U17" s="6"/>
+      <c r="V17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="W17" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>43216</v>
+      </c>
+      <c r="AE17" s="6"/>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f t="shared" si="0"/>
         <v>5315</v>
@@ -2108,8 +2592,36 @@
         <v>43217</v>
       </c>
       <c r="U18" s="6"/>
+      <c r="V18" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>43217</v>
+      </c>
+      <c r="AE18" s="6"/>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" si="0"/>
         <v>5316</v>
@@ -2170,8 +2682,36 @@
         <v>43218</v>
       </c>
       <c r="U19" s="6"/>
+      <c r="V19" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>43218</v>
+      </c>
+      <c r="AE19" s="6"/>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="0"/>
         <v>5317</v>
@@ -2232,8 +2772,36 @@
         <v>43219</v>
       </c>
       <c r="U20" s="6"/>
+      <c r="V20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="W20" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>43219</v>
+      </c>
+      <c r="AE20" s="6"/>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="0"/>
         <v>5318</v>
@@ -2294,8 +2862,36 @@
         <v>43220</v>
       </c>
       <c r="U21" s="6"/>
+      <c r="V21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="W21" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>43220</v>
+      </c>
+      <c r="AE21" s="6"/>
     </row>
-    <row r="22" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <f t="shared" si="0"/>
         <v>5319</v>
@@ -2356,8 +2952,36 @@
         <v>43221</v>
       </c>
       <c r="U22" s="6"/>
+      <c r="V22" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W22" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>43221</v>
+      </c>
+      <c r="AE22" s="6"/>
     </row>
-    <row r="23" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <f t="shared" si="0"/>
         <v>5320</v>
@@ -2422,8 +3046,36 @@
       <c r="U23" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="V23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>43222</v>
+      </c>
+      <c r="AE23" s="6"/>
     </row>
-    <row r="24" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <f t="shared" si="0"/>
         <v>5321</v>
@@ -2484,8 +3136,36 @@
         <v>43223</v>
       </c>
       <c r="U24" s="6"/>
+      <c r="V24" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>43223</v>
+      </c>
+      <c r="AE24" s="6"/>
     </row>
-    <row r="25" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <f t="shared" si="0"/>
         <v>5322</v>
@@ -2546,8 +3226,36 @@
         <v>43224</v>
       </c>
       <c r="U25" s="6"/>
+      <c r="V25" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="W25" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>43224</v>
+      </c>
+      <c r="AE25" s="6"/>
     </row>
-    <row r="26" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <f t="shared" si="0"/>
         <v>5323</v>
@@ -2608,8 +3316,36 @@
         <v>43225</v>
       </c>
       <c r="U26" s="6"/>
+      <c r="V26" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="W26" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>43225</v>
+      </c>
+      <c r="AE26" s="6"/>
     </row>
-    <row r="27" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <f t="shared" si="0"/>
         <v>5324</v>
@@ -2670,8 +3406,36 @@
         <v>43226</v>
       </c>
       <c r="U27" s="6"/>
+      <c r="V27" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="W27" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>43226</v>
+      </c>
+      <c r="AE27" s="6"/>
     </row>
-    <row r="28" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <f t="shared" si="0"/>
         <v>5325</v>
@@ -2732,8 +3496,36 @@
         <v>43227</v>
       </c>
       <c r="U28" s="6"/>
+      <c r="V28" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="W28" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>43227</v>
+      </c>
+      <c r="AE28" s="6"/>
     </row>
-    <row r="29" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <f t="shared" si="0"/>
         <v>5326</v>
@@ -2794,8 +3586,36 @@
         <v>43228</v>
       </c>
       <c r="U29" s="6"/>
+      <c r="V29" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="W29" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>43228</v>
+      </c>
+      <c r="AE29" s="6"/>
     </row>
-    <row r="30" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <f t="shared" si="0"/>
         <v>5327</v>
@@ -2856,8 +3676,36 @@
         <v>43229</v>
       </c>
       <c r="U30" s="6"/>
+      <c r="V30" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="W30" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>43229</v>
+      </c>
+      <c r="AE30" s="6"/>
     </row>
-    <row r="31" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <f t="shared" si="0"/>
         <v>5328</v>
@@ -2918,8 +3766,36 @@
         <v>43230</v>
       </c>
       <c r="U31" s="6"/>
+      <c r="V31" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>43230</v>
+      </c>
+      <c r="AE31" s="6"/>
     </row>
-    <row r="32" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <f t="shared" si="0"/>
         <v>5329</v>
@@ -2980,8 +3856,36 @@
         <v>43231</v>
       </c>
       <c r="U32" s="6"/>
+      <c r="V32" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="W32" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>43231</v>
+      </c>
+      <c r="AE32" s="6"/>
     </row>
-    <row r="33" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <f t="shared" si="0"/>
         <v>5330</v>
@@ -3042,8 +3946,36 @@
         <v>43232</v>
       </c>
       <c r="U33" s="6"/>
+      <c r="V33" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="W33" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>43232</v>
+      </c>
+      <c r="AE33" s="6"/>
     </row>
-    <row r="34" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <f t="shared" si="0"/>
         <v>5331</v>
@@ -3104,8 +4036,36 @@
         <v>43233</v>
       </c>
       <c r="U34" s="6"/>
+      <c r="V34" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="W34" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>43233</v>
+      </c>
+      <c r="AE34" s="6"/>
     </row>
-    <row r="35" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <f t="shared" si="0"/>
         <v>5332</v>
@@ -3166,8 +4126,36 @@
         <v>43234</v>
       </c>
       <c r="U35" s="6"/>
+      <c r="V35" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="W35" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>43234</v>
+      </c>
+      <c r="AE35" s="6"/>
     </row>
-    <row r="36" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <f t="shared" si="0"/>
         <v>5333</v>
@@ -3228,8 +4216,36 @@
         <v>43235</v>
       </c>
       <c r="U36" s="6"/>
+      <c r="V36" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="W36" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>43235</v>
+      </c>
+      <c r="AE36" s="6"/>
     </row>
-    <row r="37" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <f t="shared" si="0"/>
         <v>5334</v>
@@ -3290,8 +4306,36 @@
         <v>43236</v>
       </c>
       <c r="U37" s="6"/>
+      <c r="V37" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="W37" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>43236</v>
+      </c>
+      <c r="AE37" s="6"/>
     </row>
-    <row r="38" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <f t="shared" si="0"/>
         <v>5335</v>
@@ -3352,8 +4396,36 @@
         <v>43237</v>
       </c>
       <c r="U38" s="6"/>
+      <c r="V38" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="W38" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>43237</v>
+      </c>
+      <c r="AE38" s="6"/>
     </row>
-    <row r="39" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <f t="shared" si="0"/>
         <v>5336</v>
@@ -3414,8 +4486,36 @@
         <v>43238</v>
       </c>
       <c r="U39" s="6"/>
+      <c r="V39" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="W39" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>43238</v>
+      </c>
+      <c r="AE39" s="6"/>
     </row>
-    <row r="40" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <f t="shared" si="0"/>
         <v>5337</v>
@@ -3476,8 +4576,36 @@
         <v>43239</v>
       </c>
       <c r="U40" s="6"/>
+      <c r="V40" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="W40" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>43239</v>
+      </c>
+      <c r="AE40" s="6"/>
     </row>
-    <row r="41" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <f t="shared" si="0"/>
         <v>5338</v>
@@ -3538,8 +4666,36 @@
         <v>43240</v>
       </c>
       <c r="U41" s="6"/>
+      <c r="V41" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="W41" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="4">
+        <v>43240</v>
+      </c>
+      <c r="AE41" s="6"/>
     </row>
-    <row r="42" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <f t="shared" si="0"/>
         <v>5339</v>
@@ -3600,8 +4756,36 @@
         <v>43241</v>
       </c>
       <c r="U42" s="6"/>
+      <c r="V42" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="W42" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="4">
+        <v>43241</v>
+      </c>
+      <c r="AE42" s="6"/>
     </row>
-    <row r="43" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <f t="shared" si="0"/>
         <v>5340</v>
@@ -3662,8 +4846,36 @@
         <v>43242</v>
       </c>
       <c r="U43" s="6"/>
+      <c r="V43" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="W43" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="4">
+        <v>43242</v>
+      </c>
+      <c r="AE43" s="6"/>
     </row>
-    <row r="44" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <f t="shared" si="0"/>
         <v>5341</v>
@@ -3724,8 +4936,36 @@
         <v>43243</v>
       </c>
       <c r="U44" s="6"/>
+      <c r="V44" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="W44" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>43243</v>
+      </c>
+      <c r="AE44" s="6"/>
     </row>
-    <row r="45" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <f t="shared" si="0"/>
         <v>5342</v>
@@ -3786,8 +5026,36 @@
         <v>43244</v>
       </c>
       <c r="U45" s="6"/>
+      <c r="V45" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="W45" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="4">
+        <v>43244</v>
+      </c>
+      <c r="AE45" s="6"/>
     </row>
-    <row r="46" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <f t="shared" si="0"/>
         <v>5343</v>
@@ -3848,8 +5116,36 @@
         <v>43245</v>
       </c>
       <c r="U46" s="6"/>
+      <c r="V46" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="W46" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="4">
+        <v>43245</v>
+      </c>
+      <c r="AE46" s="6"/>
     </row>
-    <row r="47" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <f t="shared" si="0"/>
         <v>5344</v>
@@ -3910,8 +5206,36 @@
         <v>43246</v>
       </c>
       <c r="U47" s="6"/>
+      <c r="V47" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="W47" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="4">
+        <v>43246</v>
+      </c>
+      <c r="AE47" s="6"/>
     </row>
-    <row r="48" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <f t="shared" si="0"/>
         <v>5345</v>
@@ -3972,8 +5296,36 @@
         <v>43247</v>
       </c>
       <c r="U48" s="6"/>
+      <c r="V48" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="W48" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="4">
+        <v>43247</v>
+      </c>
+      <c r="AE48" s="6"/>
     </row>
-    <row r="49" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <f t="shared" si="0"/>
         <v>5346</v>
@@ -4034,8 +5386,36 @@
         <v>43248</v>
       </c>
       <c r="U49" s="6"/>
+      <c r="V49" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="W49" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="4">
+        <v>43248</v>
+      </c>
+      <c r="AE49" s="6"/>
     </row>
-    <row r="50" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <f>A49+1</f>
         <v>5347</v>
@@ -4096,8 +5476,36 @@
         <v>43249</v>
       </c>
       <c r="U50" s="6"/>
+      <c r="V50" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="W50" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="4">
+        <v>43249</v>
+      </c>
+      <c r="AE50" s="6"/>
     </row>
-    <row r="51" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <f t="shared" si="0"/>
         <v>5348</v>
@@ -4158,8 +5566,36 @@
         <v>43250</v>
       </c>
       <c r="U51" s="6"/>
+      <c r="V51" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="W51" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="4">
+        <v>43250</v>
+      </c>
+      <c r="AE51" s="6"/>
     </row>
-    <row r="52" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <f t="shared" si="0"/>
         <v>5349</v>
@@ -4220,8 +5656,36 @@
         <v>43251</v>
       </c>
       <c r="U52" s="6"/>
+      <c r="V52" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="W52" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="4">
+        <v>43251</v>
+      </c>
+      <c r="AE52" s="6"/>
     </row>
-    <row r="53" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <f t="shared" si="0"/>
         <v>5350</v>
@@ -4282,8 +5746,36 @@
         <v>43252</v>
       </c>
       <c r="U53" s="6"/>
+      <c r="V53" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="W53" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="4">
+        <v>43252</v>
+      </c>
+      <c r="AE53" s="6"/>
     </row>
-    <row r="54" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <f t="shared" si="0"/>
         <v>5351</v>
@@ -4344,8 +5836,36 @@
         <v>43253</v>
       </c>
       <c r="U54" s="6"/>
+      <c r="V54" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="W54" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>43253</v>
+      </c>
+      <c r="AE54" s="6"/>
     </row>
-    <row r="55" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <f t="shared" si="0"/>
         <v>5352</v>
@@ -4406,8 +5926,36 @@
         <v>43254</v>
       </c>
       <c r="U55" s="6"/>
+      <c r="V55" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="W55" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="4">
+        <v>43254</v>
+      </c>
+      <c r="AE55" s="6"/>
     </row>
-    <row r="56" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <f t="shared" si="0"/>
         <v>5353</v>
@@ -4470,8 +6018,36 @@
         <v>43255</v>
       </c>
       <c r="U56" s="6"/>
+      <c r="V56" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="W56" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="4">
+        <v>43255</v>
+      </c>
+      <c r="AE56" s="6"/>
     </row>
-    <row r="57" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <f t="shared" si="0"/>
         <v>5354</v>
@@ -4532,8 +6108,36 @@
         <v>43256</v>
       </c>
       <c r="U57" s="6"/>
+      <c r="V57" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="W57" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="4">
+        <v>43256</v>
+      </c>
+      <c r="AE57" s="6"/>
     </row>
-    <row r="58" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>1113</v>
       </c>
@@ -4593,8 +6197,36 @@
         <v>43257</v>
       </c>
       <c r="U58" s="6"/>
+      <c r="V58" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="W58" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="4">
+        <v>43257</v>
+      </c>
+      <c r="AE58" s="6"/>
     </row>
-    <row r="59" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>1114</v>
       </c>
@@ -4654,8 +6286,36 @@
         <v>43258</v>
       </c>
       <c r="U59" s="20"/>
+      <c r="V59" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="W59" s="18">
+        <v>43204</v>
+      </c>
+      <c r="X59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="4">
+        <v>43258</v>
+      </c>
+      <c r="AE59" s="20"/>
     </row>
-    <row r="60" spans="1:21" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="19"/>
@@ -4677,11 +6337,21 @@
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
       <c r="U60" s="8"/>
+      <c r="V60" s="24"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="8"/>
     </row>
-    <row r="61" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4965,24 +6635,33 @@
     <row r="345" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="346" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:F60">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:P60">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",N3)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3:Z60">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",X3)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",N3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("OK",X3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Soporte Cytibus.xlsx
+++ b/Soporte Cytibus.xlsx
@@ -1052,10 +1052,10 @@
   <dimension ref="A1:AE346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE8" sqref="AE8"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5:W59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1242,7 @@
         <v>69</v>
       </c>
       <c r="W3" s="13">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X3" s="14" t="s">
         <v>6</v>
@@ -1331,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="W4" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>11</v>
@@ -1420,7 +1420,7 @@
         <v>15</v>
       </c>
       <c r="W5" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>6</v>
@@ -1510,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="W6" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>11</v>
@@ -1600,7 +1600,7 @@
         <v>17</v>
       </c>
       <c r="W7" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X7" s="5" t="s">
         <v>6</v>
@@ -1690,7 +1690,7 @@
         <v>18</v>
       </c>
       <c r="W8" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>6</v>
@@ -1780,7 +1780,7 @@
         <v>19</v>
       </c>
       <c r="W9" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X9" s="5" t="s">
         <v>6</v>
@@ -1870,7 +1870,7 @@
         <v>20</v>
       </c>
       <c r="W10" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X10" s="5" t="s">
         <v>6</v>
@@ -1964,7 +1964,7 @@
         <v>71</v>
       </c>
       <c r="W11" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X11" s="26" t="s">
         <v>71</v>
@@ -2056,7 +2056,7 @@
         <v>21</v>
       </c>
       <c r="W12" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X12" s="5" t="s">
         <v>6</v>
@@ -2146,7 +2146,7 @@
         <v>22</v>
       </c>
       <c r="W13" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X13" s="5" t="s">
         <v>6</v>
@@ -2236,7 +2236,7 @@
         <v>23</v>
       </c>
       <c r="W14" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X14" s="5" t="s">
         <v>6</v>
@@ -2326,7 +2326,7 @@
         <v>24</v>
       </c>
       <c r="W15" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X15" s="5" t="s">
         <v>6</v>
@@ -2416,7 +2416,7 @@
         <v>25</v>
       </c>
       <c r="W16" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X16" s="5" t="s">
         <v>6</v>
@@ -2506,7 +2506,7 @@
         <v>26</v>
       </c>
       <c r="W17" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X17" s="5" t="s">
         <v>11</v>
@@ -2596,7 +2596,7 @@
         <v>27</v>
       </c>
       <c r="W18" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X18" s="5" t="s">
         <v>6</v>
@@ -2686,7 +2686,7 @@
         <v>28</v>
       </c>
       <c r="W19" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X19" s="5" t="s">
         <v>6</v>
@@ -2776,7 +2776,7 @@
         <v>29</v>
       </c>
       <c r="W20" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X20" s="5" t="s">
         <v>6</v>
@@ -2866,7 +2866,7 @@
         <v>30</v>
       </c>
       <c r="W21" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X21" s="5" t="s">
         <v>6</v>
@@ -2956,7 +2956,7 @@
         <v>31</v>
       </c>
       <c r="W22" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X22" s="5" t="s">
         <v>6</v>
@@ -3050,7 +3050,7 @@
         <v>32</v>
       </c>
       <c r="W23" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>6</v>
@@ -3140,7 +3140,7 @@
         <v>33</v>
       </c>
       <c r="W24" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X24" s="5" t="s">
         <v>6</v>
@@ -3230,7 +3230,7 @@
         <v>34</v>
       </c>
       <c r="W25" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X25" s="5" t="s">
         <v>6</v>
@@ -3320,7 +3320,7 @@
         <v>35</v>
       </c>
       <c r="W26" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X26" s="5" t="s">
         <v>6</v>
@@ -3410,7 +3410,7 @@
         <v>36</v>
       </c>
       <c r="W27" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X27" s="5" t="s">
         <v>6</v>
@@ -3500,7 +3500,7 @@
         <v>37</v>
       </c>
       <c r="W28" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X28" s="5" t="s">
         <v>6</v>
@@ -3590,7 +3590,7 @@
         <v>38</v>
       </c>
       <c r="W29" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X29" s="5" t="s">
         <v>6</v>
@@ -3680,7 +3680,7 @@
         <v>39</v>
       </c>
       <c r="W30" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X30" s="5" t="s">
         <v>6</v>
@@ -3770,7 +3770,7 @@
         <v>40</v>
       </c>
       <c r="W31" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X31" s="5" t="s">
         <v>6</v>
@@ -3860,7 +3860,7 @@
         <v>41</v>
       </c>
       <c r="W32" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X32" s="5" t="s">
         <v>6</v>
@@ -3950,7 +3950,7 @@
         <v>42</v>
       </c>
       <c r="W33" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X33" s="5" t="s">
         <v>6</v>
@@ -4040,7 +4040,7 @@
         <v>43</v>
       </c>
       <c r="W34" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X34" s="5" t="s">
         <v>6</v>
@@ -4130,7 +4130,7 @@
         <v>44</v>
       </c>
       <c r="W35" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X35" s="5" t="s">
         <v>6</v>
@@ -4220,7 +4220,7 @@
         <v>45</v>
       </c>
       <c r="W36" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X36" s="5" t="s">
         <v>11</v>
@@ -4310,7 +4310,7 @@
         <v>46</v>
       </c>
       <c r="W37" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X37" s="5" t="s">
         <v>6</v>
@@ -4400,7 +4400,7 @@
         <v>47</v>
       </c>
       <c r="W38" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X38" s="5" t="s">
         <v>6</v>
@@ -4490,7 +4490,7 @@
         <v>48</v>
       </c>
       <c r="W39" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X39" s="5" t="s">
         <v>6</v>
@@ -4580,7 +4580,7 @@
         <v>49</v>
       </c>
       <c r="W40" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X40" s="5" t="s">
         <v>6</v>
@@ -4670,7 +4670,7 @@
         <v>50</v>
       </c>
       <c r="W41" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X41" s="5" t="s">
         <v>6</v>
@@ -4760,7 +4760,7 @@
         <v>51</v>
       </c>
       <c r="W42" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X42" s="5" t="s">
         <v>6</v>
@@ -4850,7 +4850,7 @@
         <v>52</v>
       </c>
       <c r="W43" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X43" s="5" t="s">
         <v>6</v>
@@ -4940,7 +4940,7 @@
         <v>53</v>
       </c>
       <c r="W44" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X44" s="5" t="s">
         <v>6</v>
@@ -5030,7 +5030,7 @@
         <v>54</v>
       </c>
       <c r="W45" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X45" s="5" t="s">
         <v>6</v>
@@ -5120,7 +5120,7 @@
         <v>55</v>
       </c>
       <c r="W46" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X46" s="5" t="s">
         <v>6</v>
@@ -5210,7 +5210,7 @@
         <v>56</v>
       </c>
       <c r="W47" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X47" s="5" t="s">
         <v>6</v>
@@ -5300,7 +5300,7 @@
         <v>57</v>
       </c>
       <c r="W48" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X48" s="5" t="s">
         <v>6</v>
@@ -5390,7 +5390,7 @@
         <v>58</v>
       </c>
       <c r="W49" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X49" s="5" t="s">
         <v>6</v>
@@ -5480,7 +5480,7 @@
         <v>59</v>
       </c>
       <c r="W50" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X50" s="5" t="s">
         <v>6</v>
@@ -5570,7 +5570,7 @@
         <v>60</v>
       </c>
       <c r="W51" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X51" s="5" t="s">
         <v>6</v>
@@ -5660,7 +5660,7 @@
         <v>61</v>
       </c>
       <c r="W52" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X52" s="5" t="s">
         <v>6</v>
@@ -5750,7 +5750,7 @@
         <v>62</v>
       </c>
       <c r="W53" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X53" s="5" t="s">
         <v>6</v>
@@ -5840,7 +5840,7 @@
         <v>63</v>
       </c>
       <c r="W54" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X54" s="5" t="s">
         <v>6</v>
@@ -5930,7 +5930,7 @@
         <v>64</v>
       </c>
       <c r="W55" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X55" s="5" t="s">
         <v>6</v>
@@ -6022,7 +6022,7 @@
         <v>65</v>
       </c>
       <c r="W56" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X56" s="5" t="s">
         <v>6</v>
@@ -6112,7 +6112,7 @@
         <v>66</v>
       </c>
       <c r="W57" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X57" s="5" t="s">
         <v>6</v>
@@ -6201,7 +6201,7 @@
         <v>67</v>
       </c>
       <c r="W58" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X58" s="5" t="s">
         <v>11</v>
@@ -6290,7 +6290,7 @@
         <v>68</v>
       </c>
       <c r="W59" s="18">
-        <v>43204</v>
+        <v>43205</v>
       </c>
       <c r="X59" s="5" t="s">
         <v>11</v>

--- a/Soporte Cytibus.xlsx
+++ b/Soporte Cytibus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="70">
   <si>
     <t>Numero economico</t>
   </si>
@@ -516,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -590,11 +590,60 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA50021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA50021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -900,13 +949,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J346"/>
+  <dimension ref="A1:AB346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,11 +968,25 @@
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="20" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="1" customWidth="1"/>
+    <col min="13" max="15" width="11.42578125" style="1"/>
+    <col min="16" max="16" width="14.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="1" customWidth="1"/>
+    <col min="22" max="24" width="11.42578125" style="1"/>
+    <col min="25" max="25" width="14.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:28" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -948,12 +1011,62 @@
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="25"/>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="25"/>
+      <c r="T2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="25"/>
+    </row>
+    <row r="3" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>5300</v>
       </c>
@@ -984,8 +1097,26 @@
       <c r="J3" s="12">
         <v>43203</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="16"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="12"/>
+    </row>
+    <row r="4" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>5301</v>
       </c>
@@ -1016,8 +1147,26 @@
       <c r="J4" s="4">
         <v>43203</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="17"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="4"/>
+    </row>
+    <row r="5" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>5302</v>
       </c>
@@ -1046,10 +1195,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>43204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <f>A5+1</f>
         <v>5303</v>
@@ -1079,10 +1246,28 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>43205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="4"/>
+    </row>
+    <row r="7" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <f t="shared" ref="A7:A57" si="0">A6+1</f>
         <v>5304</v>
@@ -1112,10 +1297,28 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>43206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="4"/>
+    </row>
+    <row r="8" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>5305</v>
@@ -1145,10 +1348,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>43207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="4"/>
+    </row>
+    <row r="9" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>5306</v>
@@ -1178,10 +1399,28 @@
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>43208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="4"/>
+    </row>
+    <row r="10" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>5307</v>
@@ -1211,10 +1450,28 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>43209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="4"/>
+    </row>
+    <row r="11" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>5308</v>
@@ -1243,11 +1500,29 @@
       <c r="I11" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="23"/>
+    </row>
+    <row r="12" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>5309</v>
@@ -1277,10 +1552,28 @@
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>43211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="4"/>
+    </row>
+    <row r="13" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>5310</v>
@@ -1310,10 +1603,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>43212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="4"/>
+    </row>
+    <row r="14" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>5311</v>
@@ -1343,10 +1654,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>43213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>5312</v>
@@ -1376,10 +1705,28 @@
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>43214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="4"/>
+    </row>
+    <row r="16" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>5313</v>
@@ -1409,10 +1756,28 @@
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>43215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="4"/>
+    </row>
+    <row r="17" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>5314</v>
@@ -1442,10 +1807,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>43216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="4"/>
+    </row>
+    <row r="18" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>5315</v>
@@ -1475,10 +1858,28 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>43217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="4"/>
+    </row>
+    <row r="19" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>5316</v>
@@ -1508,10 +1909,28 @@
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>43218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="4"/>
+    </row>
+    <row r="20" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>5317</v>
@@ -1541,10 +1960,28 @@
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>43219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="4"/>
+    </row>
+    <row r="21" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>5318</v>
@@ -1574,10 +2011,28 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>43220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="4"/>
+    </row>
+    <row r="22" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>5319</v>
@@ -1607,10 +2062,28 @@
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="4"/>
+    </row>
+    <row r="23" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>5320</v>
@@ -1640,10 +2113,28 @@
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>43222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="4"/>
+    </row>
+    <row r="24" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>5321</v>
@@ -1673,10 +2164,28 @@
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <v>43223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="4"/>
+    </row>
+    <row r="25" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>5322</v>
@@ -1706,10 +2215,28 @@
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <v>43224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="4"/>
+    </row>
+    <row r="26" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>5323</v>
@@ -1739,10 +2266,28 @@
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <v>43225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="4"/>
+    </row>
+    <row r="27" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>5324</v>
@@ -1772,10 +2317,28 @@
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <v>43226</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="4"/>
+    </row>
+    <row r="28" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <f t="shared" si="0"/>
         <v>5325</v>
@@ -1805,10 +2368,28 @@
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>43227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="4"/>
+    </row>
+    <row r="29" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <f t="shared" si="0"/>
         <v>5326</v>
@@ -1838,10 +2419,28 @@
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <v>43228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="4"/>
+    </row>
+    <row r="30" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <f t="shared" si="0"/>
         <v>5327</v>
@@ -1871,10 +2470,28 @@
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <v>43229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="4"/>
+    </row>
+    <row r="31" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <f t="shared" si="0"/>
         <v>5328</v>
@@ -1904,10 +2521,28 @@
         <v>0</v>
       </c>
       <c r="J31" s="4">
-        <v>43230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="4"/>
+    </row>
+    <row r="32" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <f t="shared" si="0"/>
         <v>5329</v>
@@ -1937,10 +2572,28 @@
         <v>0</v>
       </c>
       <c r="J32" s="4">
-        <v>43231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="4"/>
+    </row>
+    <row r="33" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <f t="shared" si="0"/>
         <v>5330</v>
@@ -1970,10 +2623,28 @@
         <v>0</v>
       </c>
       <c r="J33" s="4">
-        <v>43232</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="4"/>
+    </row>
+    <row r="34" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <f t="shared" si="0"/>
         <v>5331</v>
@@ -2003,10 +2674,28 @@
         <v>0</v>
       </c>
       <c r="J34" s="4">
-        <v>43233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="4"/>
+    </row>
+    <row r="35" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <f t="shared" si="0"/>
         <v>5332</v>
@@ -2036,10 +2725,28 @@
         <v>0</v>
       </c>
       <c r="J35" s="4">
-        <v>43234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="4"/>
+    </row>
+    <row r="36" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <f t="shared" si="0"/>
         <v>5333</v>
@@ -2069,10 +2776,28 @@
         <v>0</v>
       </c>
       <c r="J36" s="4">
-        <v>43235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K36" s="17"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="4"/>
+    </row>
+    <row r="37" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>5334</v>
@@ -2102,10 +2827,28 @@
         <v>0</v>
       </c>
       <c r="J37" s="4">
-        <v>43236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="4"/>
+    </row>
+    <row r="38" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <f t="shared" si="0"/>
         <v>5335</v>
@@ -2135,10 +2878,28 @@
         <v>0</v>
       </c>
       <c r="J38" s="4">
-        <v>43237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K38" s="17"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="4"/>
+    </row>
+    <row r="39" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <f t="shared" si="0"/>
         <v>5336</v>
@@ -2168,10 +2929,28 @@
         <v>0</v>
       </c>
       <c r="J39" s="4">
-        <v>43238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="4"/>
+    </row>
+    <row r="40" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <f t="shared" si="0"/>
         <v>5337</v>
@@ -2201,10 +2980,28 @@
         <v>0</v>
       </c>
       <c r="J40" s="4">
-        <v>43239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K40" s="17"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="4"/>
+    </row>
+    <row r="41" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <f t="shared" si="0"/>
         <v>5338</v>
@@ -2234,10 +3031,28 @@
         <v>0</v>
       </c>
       <c r="J41" s="4">
-        <v>43240</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K41" s="17"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="4"/>
+    </row>
+    <row r="42" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <f t="shared" si="0"/>
         <v>5339</v>
@@ -2267,10 +3082,28 @@
         <v>0</v>
       </c>
       <c r="J42" s="4">
-        <v>43241</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K42" s="17"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="4"/>
+    </row>
+    <row r="43" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <f t="shared" si="0"/>
         <v>5340</v>
@@ -2300,10 +3133,28 @@
         <v>0</v>
       </c>
       <c r="J43" s="4">
-        <v>43242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K43" s="17"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="4"/>
+    </row>
+    <row r="44" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <f t="shared" si="0"/>
         <v>5341</v>
@@ -2333,10 +3184,28 @@
         <v>0</v>
       </c>
       <c r="J44" s="4">
-        <v>43243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K44" s="17"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="4"/>
+    </row>
+    <row r="45" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <f t="shared" si="0"/>
         <v>5342</v>
@@ -2366,10 +3235,28 @@
         <v>0</v>
       </c>
       <c r="J45" s="4">
-        <v>43244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K45" s="17"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="4"/>
+    </row>
+    <row r="46" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <f t="shared" si="0"/>
         <v>5343</v>
@@ -2399,10 +3286,28 @@
         <v>0</v>
       </c>
       <c r="J46" s="4">
-        <v>43245</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K46" s="17"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="4"/>
+    </row>
+    <row r="47" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <f t="shared" si="0"/>
         <v>5344</v>
@@ -2432,10 +3337,28 @@
         <v>0</v>
       </c>
       <c r="J47" s="4">
-        <v>43246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K47" s="17"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="4"/>
+    </row>
+    <row r="48" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <f t="shared" si="0"/>
         <v>5345</v>
@@ -2465,10 +3388,28 @@
         <v>0</v>
       </c>
       <c r="J48" s="4">
-        <v>43247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K48" s="17"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="4"/>
+    </row>
+    <row r="49" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <f t="shared" si="0"/>
         <v>5346</v>
@@ -2498,10 +3439,28 @@
         <v>0</v>
       </c>
       <c r="J49" s="4">
-        <v>43248</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K49" s="17"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="4"/>
+    </row>
+    <row r="50" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <f>A49+1</f>
         <v>5347</v>
@@ -2531,10 +3490,28 @@
         <v>0</v>
       </c>
       <c r="J50" s="4">
-        <v>43249</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K50" s="17"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="4"/>
+    </row>
+    <row r="51" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <f t="shared" si="0"/>
         <v>5348</v>
@@ -2564,10 +3541,28 @@
         <v>0</v>
       </c>
       <c r="J51" s="4">
-        <v>43250</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K51" s="17"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="4"/>
+    </row>
+    <row r="52" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <f t="shared" si="0"/>
         <v>5349</v>
@@ -2597,10 +3592,28 @@
         <v>0</v>
       </c>
       <c r="J52" s="4">
-        <v>43251</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K52" s="17"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="4"/>
+    </row>
+    <row r="53" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <f t="shared" si="0"/>
         <v>5350</v>
@@ -2630,10 +3643,28 @@
         <v>0</v>
       </c>
       <c r="J53" s="4">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K53" s="17"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="4"/>
+    </row>
+    <row r="54" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <f t="shared" si="0"/>
         <v>5351</v>
@@ -2663,10 +3694,28 @@
         <v>0</v>
       </c>
       <c r="J54" s="4">
-        <v>43253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K54" s="17"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="4"/>
+    </row>
+    <row r="55" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <f t="shared" si="0"/>
         <v>5352</v>
@@ -2696,10 +3745,28 @@
         <v>0</v>
       </c>
       <c r="J55" s="4">
-        <v>43254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K55" s="17"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="4"/>
+    </row>
+    <row r="56" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <f t="shared" si="0"/>
         <v>5353</v>
@@ -2729,10 +3796,28 @@
         <v>0</v>
       </c>
       <c r="J56" s="4">
-        <v>43255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K56" s="17"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="4"/>
+    </row>
+    <row r="57" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <f t="shared" si="0"/>
         <v>5354</v>
@@ -2762,10 +3847,28 @@
         <v>0</v>
       </c>
       <c r="J57" s="4">
-        <v>43256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K57" s="17"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="4"/>
+    </row>
+    <row r="58" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>1113</v>
       </c>
@@ -2794,10 +3897,28 @@
         <v>0</v>
       </c>
       <c r="J58" s="4">
-        <v>43257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43203</v>
+      </c>
+      <c r="K58" s="17"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="4"/>
+    </row>
+    <row r="59" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>1114</v>
       </c>
@@ -2826,10 +3947,28 @@
         <v>0</v>
       </c>
       <c r="J59" s="4">
-        <v>43258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43203</v>
+      </c>
+      <c r="K59" s="17"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="4"/>
+    </row>
+    <row r="60" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="15"/>
@@ -2840,11 +3979,29 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+    </row>
+    <row r="61" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3128,15 +4285,33 @@
     <row r="345" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="346" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="R2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:F60">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="NO">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:X60">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",V3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",V3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:O60">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",M3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Soporte Cytibus.xlsx
+++ b/Soporte Cytibus.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="67">
   <si>
     <t>Numero economico</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Ix01170029</t>
   </si>
   <si>
-    <t>Ix01170030</t>
-  </si>
-  <si>
     <t>Ix01170031</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>Ix01170046</t>
   </si>
   <si>
-    <t>Ix01170047</t>
-  </si>
-  <si>
     <t>Ix01170048</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
   </si>
   <si>
     <t>Ix01170050</t>
-  </si>
-  <si>
-    <t>Ix01170051</t>
   </si>
   <si>
     <t>Ix01170052</t>
@@ -597,7 +588,145 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA50021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA50021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA50021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA50021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA50021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA50021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -949,13 +1078,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB346"/>
+  <dimension ref="A1:S346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="S55" sqref="S55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,18 +1104,11 @@
     <col min="17" max="17" width="12" style="1" customWidth="1"/>
     <col min="18" max="18" width="7.5703125" style="1" customWidth="1"/>
     <col min="19" max="19" width="15.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="1" customWidth="1"/>
-    <col min="22" max="24" width="11.42578125" style="1"/>
-    <col min="25" max="25" width="14.140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12" style="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.28515625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="11.42578125" style="1"/>
+    <col min="20" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:28" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1040,38 +1162,13 @@
         <v>9</v>
       </c>
       <c r="S2" s="25"/>
-      <c r="T2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="25"/>
-    </row>
-    <row r="3" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>5300</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="10">
         <v>43203</v>
@@ -1098,25 +1195,30 @@
         <v>43203</v>
       </c>
       <c r="K3" s="16"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="L3" s="10">
+        <v>43204</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0</v>
+      </c>
       <c r="S3" s="12"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="12"/>
-    </row>
-    <row r="4" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>5301</v>
       </c>
@@ -1148,25 +1250,30 @@
         <v>43203</v>
       </c>
       <c r="K4" s="17"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="L4" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
       <c r="S4" s="4"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>5302</v>
       </c>
@@ -1198,25 +1305,30 @@
         <v>43203</v>
       </c>
       <c r="K5" s="17"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="L5" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
       <c r="S5" s="4"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <f>A5+1</f>
         <v>5303</v>
@@ -1249,25 +1361,30 @@
         <v>43203</v>
       </c>
       <c r="K6" s="17"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="L6" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
       <c r="S6" s="4"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <f t="shared" ref="A7:A57" si="0">A6+1</f>
         <v>5304</v>
@@ -1300,25 +1417,30 @@
         <v>43203</v>
       </c>
       <c r="K7" s="17"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="L7" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <f t="shared" si="0"/>
         <v>5305</v>
@@ -1351,25 +1473,30 @@
         <v>43203</v>
       </c>
       <c r="K8" s="17"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="L8" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
       <c r="S8" s="4"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <f t="shared" si="0"/>
         <v>5306</v>
@@ -1402,25 +1529,30 @@
         <v>43203</v>
       </c>
       <c r="K9" s="17"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="L9" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <f t="shared" si="0"/>
         <v>5307</v>
@@ -1453,76 +1585,90 @@
         <v>43203</v>
       </c>
       <c r="K10" s="17"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="L10" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>5308</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="23"/>
-    </row>
-    <row r="12" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <f t="shared" si="0"/>
         <v>5309</v>
@@ -1555,25 +1701,30 @@
         <v>43203</v>
       </c>
       <c r="K12" s="17"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="L12" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="4"/>
-    </row>
-    <row r="13" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <f t="shared" si="0"/>
         <v>5310</v>
@@ -1606,25 +1757,30 @@
         <v>43203</v>
       </c>
       <c r="K13" s="17"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="L13" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <f t="shared" si="0"/>
         <v>5311</v>
@@ -1657,25 +1813,30 @@
         <v>43203</v>
       </c>
       <c r="K14" s="17"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="L14" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <f t="shared" si="0"/>
         <v>5312</v>
@@ -1708,25 +1869,30 @@
         <v>43203</v>
       </c>
       <c r="K15" s="17"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="L15" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
       <c r="S15" s="4"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="4"/>
-    </row>
-    <row r="16" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <f t="shared" si="0"/>
         <v>5313</v>
@@ -1759,25 +1925,30 @@
         <v>43203</v>
       </c>
       <c r="K16" s="17"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="L16" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
       <c r="S16" s="4"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="4"/>
-    </row>
-    <row r="17" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <f t="shared" si="0"/>
         <v>5314</v>
@@ -1810,25 +1981,30 @@
         <v>43203</v>
       </c>
       <c r="K17" s="17"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="L17" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
       <c r="S17" s="4"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="4"/>
-    </row>
-    <row r="18" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <f t="shared" si="0"/>
         <v>5315</v>
@@ -1861,25 +2037,30 @@
         <v>43203</v>
       </c>
       <c r="K18" s="17"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="L18" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
       <c r="S18" s="4"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="4"/>
-    </row>
-    <row r="19" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>5316</v>
@@ -1912,25 +2093,30 @@
         <v>43203</v>
       </c>
       <c r="K19" s="17"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="L19" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
       <c r="S19" s="4"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="4"/>
-    </row>
-    <row r="20" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <f t="shared" si="0"/>
         <v>5317</v>
@@ -1963,25 +2149,30 @@
         <v>43203</v>
       </c>
       <c r="K20" s="17"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="L20" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
       <c r="S20" s="4"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="4"/>
-    </row>
-    <row r="21" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <f t="shared" si="0"/>
         <v>5318</v>
@@ -2014,25 +2205,30 @@
         <v>43203</v>
       </c>
       <c r="K21" s="17"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="L21" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
       <c r="S21" s="4"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="4"/>
-    </row>
-    <row r="22" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <f t="shared" si="0"/>
         <v>5319</v>
@@ -2065,25 +2261,30 @@
         <v>43203</v>
       </c>
       <c r="K22" s="17"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="L22" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
       <c r="S22" s="4"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="4"/>
-    </row>
-    <row r="23" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <f t="shared" si="0"/>
         <v>5320</v>
@@ -2116,25 +2317,30 @@
         <v>43203</v>
       </c>
       <c r="K23" s="17"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="L23" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
       <c r="S23" s="4"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="4"/>
-    </row>
-    <row r="24" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>5321</v>
@@ -2167,25 +2373,30 @@
         <v>43203</v>
       </c>
       <c r="K24" s="17"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="L24" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
       <c r="S24" s="4"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="4"/>
-    </row>
-    <row r="25" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>5322</v>
@@ -2218,25 +2429,30 @@
         <v>43203</v>
       </c>
       <c r="K25" s="17"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="L25" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
       <c r="S25" s="4"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="4"/>
-    </row>
-    <row r="26" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <f t="shared" si="0"/>
         <v>5323</v>
@@ -2269,490 +2485,544 @@
         <v>43203</v>
       </c>
       <c r="K26" s="17"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="L26" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
       <c r="S26" s="4"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="4"/>
-    </row>
-    <row r="27" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <f t="shared" si="0"/>
         <v>5324</v>
       </c>
       <c r="B27" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="S27" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <f t="shared" si="0"/>
+        <v>5325</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="4"/>
-    </row>
-    <row r="28" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <f t="shared" si="0"/>
-        <v>5325</v>
-      </c>
-      <c r="B28" s="17" t="s">
+      <c r="C28" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <f t="shared" si="0"/>
+        <v>5326</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="4"/>
-    </row>
-    <row r="29" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <f t="shared" si="0"/>
-        <v>5326</v>
-      </c>
-      <c r="B29" s="17" t="s">
+      <c r="C29" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <f t="shared" si="0"/>
+        <v>5327</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="4"/>
-    </row>
-    <row r="30" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
-        <f t="shared" si="0"/>
-        <v>5327</v>
-      </c>
-      <c r="B30" s="17" t="s">
+      <c r="C30" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <f t="shared" si="0"/>
+        <v>5328</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="4"/>
-    </row>
-    <row r="31" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
-        <f t="shared" si="0"/>
-        <v>5328</v>
-      </c>
-      <c r="B31" s="17" t="s">
+      <c r="C31" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K31" s="17"/>
+      <c r="L31" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <f t="shared" si="0"/>
+        <v>5329</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="4"/>
-    </row>
-    <row r="32" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <f t="shared" si="0"/>
-        <v>5329</v>
-      </c>
-      <c r="B32" s="17" t="s">
+      <c r="C32" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4"/>
+    </row>
+    <row r="33" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <f t="shared" si="0"/>
+        <v>5330</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="4"/>
-    </row>
-    <row r="33" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
-        <f t="shared" si="0"/>
-        <v>5330</v>
-      </c>
-      <c r="B33" s="17" t="s">
+      <c r="C33" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K33" s="17"/>
+      <c r="L33" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <f t="shared" si="0"/>
+        <v>5331</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="4"/>
-    </row>
-    <row r="34" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
-        <f t="shared" si="0"/>
-        <v>5331</v>
-      </c>
-      <c r="B34" s="17" t="s">
+      <c r="C34" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <f t="shared" si="0"/>
+        <v>5332</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="4"/>
-    </row>
-    <row r="35" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
-        <f t="shared" si="0"/>
-        <v>5332</v>
-      </c>
-      <c r="B35" s="17" t="s">
+      <c r="C35" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <f t="shared" si="0"/>
+        <v>5333</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="C35" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="4"/>
-    </row>
-    <row r="36" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <f t="shared" si="0"/>
-        <v>5333</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>44</v>
       </c>
       <c r="C36" s="14">
         <v>43203</v>
@@ -2779,644 +3049,717 @@
         <v>43203</v>
       </c>
       <c r="K36" s="17"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="L36" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
       <c r="S36" s="4"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="4"/>
-    </row>
-    <row r="37" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <f t="shared" si="0"/>
         <v>5334</v>
       </c>
       <c r="B37" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0</v>
+      </c>
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <f t="shared" si="0"/>
+        <v>5335</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="4"/>
-    </row>
-    <row r="38" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
-        <f t="shared" si="0"/>
-        <v>5335</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="C38" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K38" s="17"/>
+      <c r="L38" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0</v>
+      </c>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <f t="shared" si="0"/>
+        <v>5336</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K38" s="17"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="4"/>
-    </row>
-    <row r="39" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
-        <f t="shared" si="0"/>
-        <v>5336</v>
-      </c>
-      <c r="B39" s="17" t="s">
+      <c r="C39" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R39" s="3">
+        <v>0</v>
+      </c>
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <f t="shared" si="0"/>
+        <v>5337</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="4"/>
-    </row>
-    <row r="40" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
-        <f t="shared" si="0"/>
-        <v>5337</v>
-      </c>
-      <c r="B40" s="17" t="s">
+      <c r="C40" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K40" s="17"/>
+      <c r="L40" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0</v>
+      </c>
+      <c r="S40" s="4"/>
+    </row>
+    <row r="41" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <f t="shared" si="0"/>
+        <v>5338</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="4"/>
-    </row>
-    <row r="41" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
-        <f t="shared" si="0"/>
-        <v>5338</v>
-      </c>
-      <c r="B41" s="17" t="s">
+      <c r="C41" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K41" s="17"/>
+      <c r="L41" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="4"/>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <f t="shared" si="0"/>
+        <v>5339</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="4"/>
-    </row>
-    <row r="42" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
-        <f t="shared" si="0"/>
-        <v>5339</v>
-      </c>
-      <c r="B42" s="17" t="s">
+      <c r="C42" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K42" s="17"/>
+      <c r="L42" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="4"/>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <f t="shared" si="0"/>
+        <v>5340</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K42" s="17"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="4"/>
-    </row>
-    <row r="43" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
-        <f t="shared" si="0"/>
-        <v>5340</v>
-      </c>
-      <c r="B43" s="17" t="s">
+      <c r="C43" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K43" s="17"/>
+      <c r="L43" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="4"/>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <f t="shared" si="0"/>
+        <v>5341</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N44" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="O44" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q44" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R44" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="S44" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <f t="shared" si="0"/>
+        <v>5342</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="4"/>
-    </row>
-    <row r="44" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
-        <f t="shared" si="0"/>
-        <v>5341</v>
-      </c>
-      <c r="B44" s="17" t="s">
+      <c r="C45" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K45" s="17"/>
+      <c r="L45" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <f t="shared" si="0"/>
+        <v>5343</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K44" s="17"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="4"/>
-    </row>
-    <row r="45" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
-        <f t="shared" si="0"/>
-        <v>5342</v>
-      </c>
-      <c r="B45" s="17" t="s">
+      <c r="C46" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K46" s="17"/>
+      <c r="L46" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="4"/>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <f t="shared" si="0"/>
+        <v>5344</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K45" s="17"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="4"/>
-    </row>
-    <row r="46" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
-        <f t="shared" si="0"/>
-        <v>5343</v>
-      </c>
-      <c r="B46" s="17" t="s">
+      <c r="C47" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K47" s="17"/>
+      <c r="L47" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="4"/>
+    </row>
+    <row r="48" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <f t="shared" si="0"/>
+        <v>5345</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L48" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M48" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N48" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="O48" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q48" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R48" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="S48" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <f t="shared" si="0"/>
+        <v>5346</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K46" s="17"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="4"/>
-    </row>
-    <row r="47" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
-        <f t="shared" si="0"/>
-        <v>5344</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K47" s="17"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="4"/>
-    </row>
-    <row r="48" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
-        <f t="shared" si="0"/>
-        <v>5345</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K48" s="17"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="4"/>
-    </row>
-    <row r="49" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
-        <f t="shared" si="0"/>
-        <v>5346</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="C49" s="14">
         <v>43203</v>
       </c>
@@ -3442,389 +3785,429 @@
         <v>43203</v>
       </c>
       <c r="K49" s="17"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
+      <c r="L49" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
       <c r="S49" s="4"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="4"/>
-    </row>
-    <row r="50" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <f>A49+1</f>
         <v>5347</v>
       </c>
       <c r="B50" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K50" s="17"/>
+      <c r="L50" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="4"/>
+    </row>
+    <row r="51" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <f t="shared" si="0"/>
+        <v>5348</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K51" s="17"/>
+      <c r="L51" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="4"/>
+    </row>
+    <row r="52" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <f t="shared" si="0"/>
+        <v>5349</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K52" s="17"/>
+      <c r="L52" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="4"/>
+    </row>
+    <row r="53" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <f t="shared" si="0"/>
+        <v>5350</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K50" s="17"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="4"/>
-    </row>
-    <row r="51" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
-        <f t="shared" si="0"/>
-        <v>5348</v>
-      </c>
-      <c r="B51" s="17" t="s">
+      <c r="C53" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K53" s="17"/>
+      <c r="L53" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="4"/>
+    </row>
+    <row r="54" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <f t="shared" si="0"/>
+        <v>5351</v>
+      </c>
+      <c r="B54" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K51" s="17"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="4"/>
-    </row>
-    <row r="52" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
-        <f t="shared" si="0"/>
-        <v>5349</v>
-      </c>
-      <c r="B52" s="17" t="s">
+      <c r="C54" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K54" s="17"/>
+      <c r="L54" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="4"/>
+    </row>
+    <row r="55" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <f t="shared" si="0"/>
+        <v>5352</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K52" s="17"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="4"/>
-    </row>
-    <row r="53" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
-        <f t="shared" si="0"/>
-        <v>5350</v>
-      </c>
-      <c r="B53" s="17" t="s">
+      <c r="C55" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K55" s="17"/>
+      <c r="L55" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R55" s="3">
+        <v>0</v>
+      </c>
+      <c r="S55" s="4"/>
+    </row>
+    <row r="56" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <f t="shared" si="0"/>
+        <v>5353</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K53" s="17"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="4"/>
-    </row>
-    <row r="54" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
-        <f t="shared" si="0"/>
-        <v>5351</v>
-      </c>
-      <c r="B54" s="17" t="s">
+      <c r="C56" s="14">
+        <v>43203</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>43203</v>
+      </c>
+      <c r="K56" s="17"/>
+      <c r="L56" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R56" s="3">
+        <v>0</v>
+      </c>
+      <c r="S56" s="4"/>
+    </row>
+    <row r="57" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <f t="shared" si="0"/>
+        <v>5354</v>
+      </c>
+      <c r="B57" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K54" s="17"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="4"/>
-    </row>
-    <row r="55" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
-        <f t="shared" si="0"/>
-        <v>5352</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K55" s="17"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="4"/>
-    </row>
-    <row r="56" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
-        <f t="shared" si="0"/>
-        <v>5353</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="14">
-        <v>43203</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="J56" s="4">
-        <v>43203</v>
-      </c>
-      <c r="K56" s="17"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="4"/>
-    </row>
-    <row r="57" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
-        <f t="shared" si="0"/>
-        <v>5354</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="C57" s="14">
         <v>43203</v>
       </c>
@@ -3850,30 +4233,35 @@
         <v>43203</v>
       </c>
       <c r="K57" s="17"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
+      <c r="L57" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
       <c r="S57" s="4"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="4"/>
-    </row>
-    <row r="58" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>1113</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C58" s="14">
         <v>43203</v>
@@ -3900,30 +4288,35 @@
         <v>43203</v>
       </c>
       <c r="K58" s="17"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
+      <c r="L58" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
       <c r="S58" s="4"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="14"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="4"/>
-    </row>
-    <row r="59" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>1114</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C59" s="14">
         <v>43203</v>
@@ -3950,25 +4343,30 @@
         <v>43203</v>
       </c>
       <c r="K59" s="17"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
+      <c r="L59" s="14">
+        <v>43204</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
       <c r="S59" s="4"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="4"/>
-    </row>
-    <row r="60" spans="1:28" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:19" s="2" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="15"/>
@@ -3988,20 +4386,11 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
-      <c r="T60" s="19"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="13"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-      <c r="AA60" s="6"/>
-      <c r="AB60" s="6"/>
-    </row>
-    <row r="61" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="61" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4285,33 +4674,80 @@
     <row r="345" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="346" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="R2:S2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:F60">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="NO">
+  <conditionalFormatting sqref="D3:F26 D28:F43 D45:F47 D49:F60">
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="16" priority="24" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:X60">
+  <conditionalFormatting sqref="M60:O60">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",M60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",M60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:O26 M28:O43 M45:O47 M49:O59">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",M3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",M3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:F27">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",D27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",D27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:O27">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",M27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",M27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44:F44">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",D44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44:O44">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",M44)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",M44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:F48">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",V3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",D48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",V3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("OK",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:O60">
+  <conditionalFormatting sqref="M48:O48">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",M3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NO",M48)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",M3)))</formula>
+      <formula>NOT(ISERROR(SEARCH("OK",M48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
